--- a/data/chemicals/chemcals.xlsx
+++ b/data/chemicals/chemcals.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/chemicals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF2AD1-4088-E142-9CD6-C720FEE197E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48756FAC-0DD1-384D-89FD-7627EABF1886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="960" windowWidth="27360" windowHeight="16440" activeTab="1" xr2:uid="{F50A8FE4-A61F-A649-9B52-DF322EB9DCB1}"/>
+    <workbookView xWindow="4260" yWindow="600" windowWidth="20700" windowHeight="21000" activeTab="2" xr2:uid="{F50A8FE4-A61F-A649-9B52-DF322EB9DCB1}"/>
   </bookViews>
   <sheets>
     <sheet name="eth-box" sheetId="2" r:id="rId1"/>
     <sheet name="eth-stoich" sheetId="3" r:id="rId2"/>
+    <sheet name="NH3-box" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="78">
   <si>
     <t>meta-process</t>
   </si>
@@ -184,6 +185,90 @@
   </si>
   <si>
     <t>biomass</t>
+  </si>
+  <si>
+    <t>Inflows</t>
+  </si>
+  <si>
+    <t>Outflows</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Ammonia Prod</t>
+  </si>
+  <si>
+    <t>CO2 Prod</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Steam Demand</t>
+  </si>
+  <si>
+    <t>MDEA</t>
+  </si>
+  <si>
+    <t>MDEA demand</t>
+  </si>
+  <si>
+    <t>Purge</t>
+  </si>
+  <si>
+    <t>Purge Prod</t>
+  </si>
+  <si>
+    <t>Bottoms</t>
+  </si>
+  <si>
+    <t>Bottoms Prod</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Air Demand</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>CONSUMED electricity</t>
+  </si>
+  <si>
+    <t>returnvalue</t>
+  </si>
+  <si>
+    <t>Steam Energy</t>
+  </si>
+  <si>
+    <t>energycontent</t>
+  </si>
+  <si>
+    <t>Electricity Demand</t>
+  </si>
+  <si>
+    <t>CONSUMED Steam Energy</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>CONSUMED steam</t>
+  </si>
+  <si>
+    <t>enzymes_NH3</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>enzymes_NH3_yeast</t>
   </si>
 </sst>
 </file>
@@ -553,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F33C52-740E-044A-B923-5778060B98E1}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -790,6 +875,40 @@
         <v>48</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -797,15 +916,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D949BB-0D95-9C45-9971-7344C83CD971}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1088,10 +1208,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -1104,6 +1224,387 @@
       </c>
       <c r="G14" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCB888F-23CF-BB4E-BD4F-1C1DD676FB24}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
